--- a/data/trans_orig/P1406-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1406-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1A51FE9-FCF9-436C-9316-57DF1847820C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA67B3F5-6184-4861-B13B-6B1FCE1E6A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2B709CC9-8095-4FD6-BC47-D6EBB85EC2BB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{58465FB6-5A77-469D-8E33-8D79B618523F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="267">
   <si>
     <t>Población con diagnóstico de úlcera de estómago en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -103,712 +103,700 @@
     <t>2,24%</t>
   </si>
   <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>98,79%</t>
   </si>
   <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de úlcera de estómago en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
+    <t>Población con diagnóstico de úlcera de estómago en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de úlcera de estómago en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de úlcera de estómago en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
     <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
   </si>
   <si>
     <t>99,58%</t>
@@ -1262,7 +1250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F290A6B0-FADB-4A63-B4D0-E703592D0921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E92ADC-CEE2-4299-9395-FA40D68AEBFB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2067,7 +2055,7 @@
         <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,7 +2073,7 @@
         <v>52</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>48</v>
@@ -2097,13 +2085,13 @@
         <v>664839</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M18" s="7">
         <v>1241</v>
@@ -2112,13 +2100,13 @@
         <v>1331649</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,7 +2162,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2192,7 +2180,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2207,7 +2195,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2237,13 +2225,13 @@
         <v>5383</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2252,13 +2240,13 @@
         <v>1054</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -2267,10 +2255,10 @@
         <v>6437</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>61</v>
@@ -2288,13 +2276,13 @@
         <v>207235</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H22" s="7">
         <v>211</v>
@@ -2303,10 +2291,10 @@
         <v>218537</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>48</v>
@@ -2318,13 +2306,13 @@
         <v>425772</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,7 +2368,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2398,37 +2386,37 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2431,13 @@
         <v>3920</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2458,13 +2446,13 @@
         <v>2066</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2473,13 +2461,13 @@
         <v>5985</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,13 +2482,13 @@
         <v>270061</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H26" s="7">
         <v>266</v>
@@ -2509,10 +2497,10 @@
         <v>276030</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>48</v>
@@ -2524,13 +2512,13 @@
         <v>546092</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,7 +2574,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2649,13 +2637,13 @@
         <v>5954</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -2664,13 +2652,13 @@
         <v>6262</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -2679,13 +2667,13 @@
         <v>12215</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2688,13 @@
         <v>656834</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="H30" s="7">
         <v>630</v>
@@ -2715,13 +2703,13 @@
         <v>687591</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M30" s="7">
         <v>1242</v>
@@ -2730,13 +2718,13 @@
         <v>1344426</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,7 +2780,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2810,7 +2798,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2825,7 +2813,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2840,7 +2828,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,13 +2843,13 @@
         <v>12083</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H33" s="7">
         <v>10</v>
@@ -2870,13 +2858,13 @@
         <v>10926</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="M33" s="7">
         <v>20</v>
@@ -2885,13 +2873,13 @@
         <v>23009</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2894,13 @@
         <v>767015</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H34" s="7">
         <v>745</v>
@@ -2921,13 +2909,13 @@
         <v>810469</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M34" s="7">
         <v>1452</v>
@@ -2936,13 +2924,13 @@
         <v>1577484</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,7 +3004,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3031,7 +3019,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3046,7 +3034,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3049,13 @@
         <v>40572</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H37" s="7">
         <v>39</v>
@@ -3076,13 +3064,13 @@
         <v>43119</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M37" s="7">
         <v>77</v>
@@ -3091,13 +3079,13 @@
         <v>83691</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3100,13 @@
         <v>3386207</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H38" s="7">
         <v>3256</v>
@@ -3127,13 +3115,13 @@
         <v>3510797</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M38" s="7">
         <v>6427</v>
@@ -3142,13 +3130,13 @@
         <v>6897003</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,7 +3192,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3228,7 +3216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537EDA89-0A6B-4656-9450-CC4E29756B35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF724C3-2D7B-4BE7-9E37-A554EC44DDDA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3245,7 +3233,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3358,37 +3346,37 @@
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3391,13 @@
         <v>930</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3418,13 +3406,13 @@
         <v>2213</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3433,13 +3421,13 @@
         <v>3143</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,10 +3442,10 @@
         <v>292831</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>48</v>
@@ -3469,10 +3457,10 @@
         <v>286490</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>48</v>
@@ -3484,13 +3472,13 @@
         <v>579321</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3597,13 @@
         <v>5423</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -3624,13 +3612,13 @@
         <v>5148</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -3660,7 +3648,7 @@
         <v>497152</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>176</v>
@@ -3678,10 +3666,10 @@
         <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>949</v>
@@ -3690,13 +3678,13 @@
         <v>1015087</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,7 +3758,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3785,7 +3773,7 @@
         <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3821,7 +3809,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3830,13 +3818,13 @@
         <v>1932</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3851,7 +3839,7 @@
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,7 +3857,7 @@
         <v>48</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>38</v>
@@ -3881,10 +3869,10 @@
         <v>334377</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>48</v>
@@ -3899,7 +3887,7 @@
         <v>52</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>48</v>
@@ -3976,7 +3964,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3991,7 +3979,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4006,7 +3994,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4009,13 @@
         <v>1764</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4036,13 +4024,13 @@
         <v>3024</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -4051,13 +4039,13 @@
         <v>4788</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,10 +4060,10 @@
         <v>368200</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>48</v>
@@ -4087,13 +4075,13 @@
         <v>384259</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M18" s="7">
         <v>708</v>
@@ -4102,13 +4090,13 @@
         <v>752459</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,7 +4152,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4182,7 +4170,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4197,7 +4185,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4212,7 +4200,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,13 +4215,13 @@
         <v>1066</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -4242,13 +4230,13 @@
         <v>1962</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -4257,13 +4245,13 @@
         <v>3028</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>204</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,10 +4266,10 @@
         <v>210155</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>48</v>
@@ -4293,10 +4281,10 @@
         <v>216625</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>48</v>
@@ -4308,13 +4296,13 @@
         <v>426780</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,7 +4358,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4388,7 +4376,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4403,7 +4391,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4448,13 +4436,13 @@
         <v>4385</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -4463,13 +4451,13 @@
         <v>5192</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,10 +4472,10 @@
         <v>262316</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>48</v>
@@ -4499,13 +4487,13 @@
         <v>268730</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>117</v>
+        <v>219</v>
       </c>
       <c r="M26" s="7">
         <v>517</v>
@@ -4514,13 +4502,13 @@
         <v>531046</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,7 +4564,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4594,7 +4582,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4624,7 +4612,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4627,13 @@
         <v>4125</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>221</v>
+        <v>116</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -4654,13 +4642,13 @@
         <v>7386</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -4669,13 +4657,13 @@
         <v>11510</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,13 +4678,13 @@
         <v>652433</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>227</v>
+        <v>125</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="H30" s="7">
         <v>640</v>
@@ -4705,13 +4693,13 @@
         <v>683908</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="M30" s="7">
         <v>1216</v>
@@ -4720,13 +4708,13 @@
         <v>1336342</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,7 +4770,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4800,7 +4788,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4815,7 +4803,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4830,7 +4818,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,7 +4839,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
@@ -4863,10 +4851,10 @@
         <v>62</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="M33" s="7">
         <v>8</v>
@@ -4875,13 +4863,13 @@
         <v>9351</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>119</v>
+        <v>227</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,7 +4887,7 @@
         <v>55</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>48</v>
@@ -4911,13 +4899,13 @@
         <v>817950</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="M34" s="7">
         <v>1497</v>
@@ -4926,13 +4914,13 @@
         <v>1595399</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,7 +4994,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5021,7 +5009,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5036,7 +5024,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5039,13 @@
         <v>15249</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="H37" s="7">
         <v>31</v>
@@ -5066,13 +5054,13 @@
         <v>34266</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M37" s="7">
         <v>45</v>
@@ -5081,13 +5069,13 @@
         <v>49515</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5090,13 @@
         <v>3379101</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H38" s="7">
         <v>3307</v>
@@ -5117,13 +5105,13 @@
         <v>3510276</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M38" s="7">
         <v>6524</v>
@@ -5132,13 +5120,13 @@
         <v>6889377</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,7 +5182,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -5218,7 +5206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42567B6D-84AC-493C-B937-3945B2A699A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279E5E32-5525-4110-A5C0-9A1C44031F4C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5235,7 +5223,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5345,7 +5333,7 @@
         <v>48</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>38</v>
@@ -5360,7 +5348,7 @@
         <v>48</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>249</v>
+        <v>98</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>38</v>
@@ -5375,7 +5363,7 @@
         <v>48</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>38</v>
@@ -5399,7 +5387,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5414,7 +5402,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5429,7 +5417,7 @@
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,7 +5438,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5465,7 +5453,7 @@
         <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5480,7 +5468,7 @@
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,7 +5539,7 @@
         <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>38</v>
@@ -5566,7 +5554,7 @@
         <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>38</v>
@@ -5581,7 +5569,7 @@
         <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>38</v>
@@ -5605,7 +5593,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5620,7 +5608,7 @@
         <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5635,7 +5623,7 @@
         <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,7 +5644,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5671,7 +5659,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5686,7 +5674,7 @@
         <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,7 +5745,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>247</v>
+        <v>69</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>38</v>
@@ -5772,7 +5760,7 @@
         <v>48</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>249</v>
+        <v>98</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>38</v>
@@ -5787,7 +5775,7 @@
         <v>48</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>38</v>
@@ -5811,7 +5799,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5826,7 +5814,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5841,7 +5829,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,7 +5850,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5877,7 +5865,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5892,7 +5880,7 @@
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,7 +5951,7 @@
         <v>48</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>38</v>
@@ -5978,7 +5966,7 @@
         <v>48</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>38</v>
@@ -5993,7 +5981,7 @@
         <v>48</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>38</v>
@@ -6017,7 +6005,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6032,7 +6020,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6047,7 +6035,7 @@
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,7 +6056,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6083,7 +6071,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6098,7 +6086,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,7 +6142,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6169,7 +6157,7 @@
         <v>48</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>38</v>
@@ -6184,7 +6172,7 @@
         <v>48</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>255</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>38</v>
@@ -6199,7 +6187,7 @@
         <v>48</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>38</v>
@@ -6223,7 +6211,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6238,7 +6226,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>256</v>
+        <v>95</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6253,7 +6241,7 @@
         <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,7 +6262,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6289,7 +6277,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>95</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6304,7 +6292,7 @@
         <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,7 +6348,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6375,7 +6363,7 @@
         <v>48</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>38</v>
@@ -6390,7 +6378,7 @@
         <v>48</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>38</v>
@@ -6405,7 +6393,7 @@
         <v>48</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>38</v>
@@ -6429,7 +6417,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>63</v>
+        <v>237</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6444,7 +6432,7 @@
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6459,7 +6447,7 @@
         <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,7 +6468,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>63</v>
+        <v>237</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6495,7 +6483,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6510,7 +6498,7 @@
         <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,7 +6554,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6581,7 +6569,7 @@
         <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>38</v>
@@ -6596,7 +6584,7 @@
         <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>38</v>
@@ -6611,7 +6599,7 @@
         <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>38</v>
@@ -6635,7 +6623,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6665,7 +6653,7 @@
         <v>16</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6686,7 +6674,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6716,7 +6704,7 @@
         <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,7 +6760,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6787,7 +6775,7 @@
         <v>48</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>38</v>
@@ -6802,7 +6790,7 @@
         <v>48</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>38</v>
@@ -6817,7 +6805,7 @@
         <v>48</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>38</v>
@@ -6841,7 +6829,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6856,7 +6844,7 @@
         <v>16</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6871,7 +6859,7 @@
         <v>16</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6892,7 +6880,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6907,7 +6895,7 @@
         <v>16</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6922,7 +6910,7 @@
         <v>16</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6993,7 +6981,7 @@
         <v>48</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>38</v>
@@ -7008,7 +6996,7 @@
         <v>48</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>38</v>
@@ -7017,13 +7005,13 @@
         <v>8743</v>
       </c>
       <c r="N36" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>48</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>38</v>
@@ -7047,7 +7035,7 @@
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -7062,7 +7050,7 @@
         <v>16</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -7077,7 +7065,7 @@
         <v>16</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7098,7 +7086,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7113,7 +7101,7 @@
         <v>16</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -7128,7 +7116,7 @@
         <v>16</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7170,7 +7158,7 @@
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>38</v>
@@ -7184,7 +7172,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1406-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1406-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA67B3F5-6184-4861-B13B-6B1FCE1E6A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0097238-6DA7-4560-8896-0A0E082A9E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{58465FB6-5A77-469D-8E33-8D79B618523F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{87E8D8A4-DFF0-4F7E-9A06-9342F983573A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="274">
   <si>
     <t>Población con diagnóstico de úlcera de estómago en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -106,703 +106,724 @@
     <t>1,04%</t>
   </si>
   <si>
-    <t>3,73%</t>
+    <t>3,84%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>98,8%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de úlcera de estómago en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de úlcera de estómago en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
   </si>
   <si>
     <t>0,39%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de úlcera de estómago en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de úlcera de estómago en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
   </si>
   <si>
     <t>99,8%</t>
@@ -1250,7 +1271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E92ADC-CEE2-4299-9395-FA40D68AEBFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB3BDE5-04E6-44FF-8932-8F5D5733CBA1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2019,13 +2040,13 @@
         <v>1909</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -2034,13 +2055,13 @@
         <v>11357</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -2049,13 +2070,13 @@
         <v>13267</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,10 +2091,10 @@
         <v>666811</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>48</v>
@@ -2085,13 +2106,13 @@
         <v>664839</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M18" s="7">
         <v>1241</v>
@@ -2100,13 +2121,13 @@
         <v>1331649</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,7 +2183,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2180,7 +2201,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2195,7 +2216,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2225,13 +2246,13 @@
         <v>5383</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2240,13 +2261,13 @@
         <v>1054</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -2255,13 +2276,13 @@
         <v>6437</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,13 +2297,13 @@
         <v>207235</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H22" s="7">
         <v>211</v>
@@ -2291,10 +2312,10 @@
         <v>218537</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>48</v>
@@ -2306,13 +2327,13 @@
         <v>425772</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,7 +2389,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2386,7 +2407,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2401,7 +2422,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2416,7 +2437,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2452,13 @@
         <v>3920</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2446,13 +2467,13 @@
         <v>2066</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2461,13 +2482,13 @@
         <v>5985</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,13 +2503,13 @@
         <v>270061</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="H26" s="7">
         <v>266</v>
@@ -2497,10 +2518,10 @@
         <v>276030</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>48</v>
@@ -2512,13 +2533,13 @@
         <v>546092</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,7 +2595,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2637,13 +2658,13 @@
         <v>5954</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -2652,13 +2673,13 @@
         <v>6262</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -2667,13 +2688,13 @@
         <v>12215</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,13 +2709,13 @@
         <v>656834</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="H30" s="7">
         <v>630</v>
@@ -2703,13 +2724,13 @@
         <v>687591</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M30" s="7">
         <v>1242</v>
@@ -2718,13 +2739,13 @@
         <v>1344426</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,7 +2801,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2798,7 +2819,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2813,7 +2834,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2828,7 +2849,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,13 +2864,13 @@
         <v>12083</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H33" s="7">
         <v>10</v>
@@ -2858,13 +2879,13 @@
         <v>10926</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M33" s="7">
         <v>20</v>
@@ -2873,13 +2894,13 @@
         <v>23009</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2915,13 @@
         <v>767015</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="H34" s="7">
         <v>745</v>
@@ -2909,13 +2930,13 @@
         <v>810469</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M34" s="7">
         <v>1452</v>
@@ -2924,13 +2945,13 @@
         <v>1577484</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,7 +3025,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3019,7 +3040,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3034,7 +3055,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3070,13 @@
         <v>40572</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="H37" s="7">
         <v>39</v>
@@ -3064,13 +3085,13 @@
         <v>43119</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="M37" s="7">
         <v>77</v>
@@ -3079,13 +3100,13 @@
         <v>83691</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3121,13 @@
         <v>3386207</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="H38" s="7">
         <v>3256</v>
@@ -3115,13 +3136,13 @@
         <v>3510797</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="M38" s="7">
         <v>6427</v>
@@ -3130,13 +3151,13 @@
         <v>6897003</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,7 +3213,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3216,7 +3237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF724C3-2D7B-4BE7-9E37-A554EC44DDDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7454A16-7995-4BF9-8C3B-F66939B3B25B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3233,7 +3254,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3346,7 +3367,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3361,7 +3382,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3376,7 +3397,7 @@
         <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3412,13 @@
         <v>930</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3406,13 +3427,13 @@
         <v>2213</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3421,13 +3442,13 @@
         <v>3143</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,10 +3463,10 @@
         <v>292831</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>48</v>
@@ -3457,10 +3478,10 @@
         <v>286490</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>48</v>
@@ -3472,13 +3493,13 @@
         <v>579321</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3618,13 @@
         <v>5423</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -3612,13 +3633,13 @@
         <v>5148</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -3627,13 +3648,13 @@
         <v>10572</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3669,13 @@
         <v>497152</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>479</v>
@@ -3663,13 +3684,13 @@
         <v>517936</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="M10" s="7">
         <v>949</v>
@@ -3678,13 +3699,13 @@
         <v>1015087</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,7 +3779,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3773,7 +3794,7 @@
         <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3788,7 +3809,7 @@
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,7 +3830,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3818,13 +3839,13 @@
         <v>1932</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3833,13 +3854,13 @@
         <v>1932</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,7 +3878,7 @@
         <v>48</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>38</v>
@@ -3869,10 +3890,10 @@
         <v>334377</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>48</v>
@@ -3884,10 +3905,10 @@
         <v>652942</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>48</v>
@@ -3964,7 +3985,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3979,7 +4000,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3994,7 +4015,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,13 +4030,13 @@
         <v>1764</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4024,13 +4045,13 @@
         <v>3024</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -4039,13 +4060,13 @@
         <v>4788</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,10 +4081,10 @@
         <v>368200</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>48</v>
@@ -4075,13 +4096,13 @@
         <v>384259</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M18" s="7">
         <v>708</v>
@@ -4090,13 +4111,13 @@
         <v>752459</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,7 +4173,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4170,7 +4191,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4185,7 +4206,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4200,7 +4221,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,13 +4236,13 @@
         <v>1066</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -4230,13 +4251,13 @@
         <v>1962</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -4245,13 +4266,13 @@
         <v>3028</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,10 +4287,10 @@
         <v>210155</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>207</v>
+        <v>84</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>48</v>
@@ -4281,10 +4302,10 @@
         <v>216625</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>48</v>
@@ -4296,13 +4317,13 @@
         <v>426780</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>35</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,7 +4379,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4376,7 +4397,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4391,7 +4412,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4406,7 +4427,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>210</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,7 +4448,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4436,13 +4457,13 @@
         <v>4385</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -4451,13 +4472,13 @@
         <v>5192</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,10 +4493,10 @@
         <v>262316</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>48</v>
@@ -4487,13 +4508,13 @@
         <v>268730</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M26" s="7">
         <v>517</v>
@@ -4502,13 +4523,13 @@
         <v>531046</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,7 +4585,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4582,7 +4603,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4612,7 +4633,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4648,13 @@
         <v>4125</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -4642,13 +4663,13 @@
         <v>7386</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -4657,13 +4678,13 @@
         <v>11510</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>137</v>
+        <v>229</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,13 +4699,13 @@
         <v>652433</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="H30" s="7">
         <v>640</v>
@@ -4693,13 +4714,13 @@
         <v>683908</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>224</v>
+        <v>139</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="M30" s="7">
         <v>1216</v>
@@ -4708,13 +4729,13 @@
         <v>1336342</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>145</v>
+        <v>232</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>217</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,7 +4791,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4788,7 +4809,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4803,7 +4824,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4818,7 +4839,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,7 +4860,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
@@ -4848,13 +4869,13 @@
         <v>8217</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="M33" s="7">
         <v>8</v>
@@ -4863,13 +4884,13 @@
         <v>9351</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>227</v>
+        <v>43</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>228</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,7 +4908,7 @@
         <v>55</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>48</v>
@@ -4899,13 +4920,13 @@
         <v>817950</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>1497</v>
@@ -4914,13 +4935,13 @@
         <v>1595399</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>233</v>
+        <v>109</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>234</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,7 +5015,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5009,7 +5030,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5024,7 +5045,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5060,13 @@
         <v>15249</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>227</v>
+        <v>124</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="H37" s="7">
         <v>31</v>
@@ -5054,13 +5075,13 @@
         <v>34266</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="M37" s="7">
         <v>45</v>
@@ -5069,13 +5090,13 @@
         <v>49515</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>237</v>
+        <v>64</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5111,13 @@
         <v>3379101</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="H38" s="7">
         <v>3307</v>
@@ -5105,13 +5126,13 @@
         <v>3510276</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="M38" s="7">
         <v>6524</v>
@@ -5120,13 +5141,13 @@
         <v>6889377</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>241</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,7 +5203,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5206,7 +5227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279E5E32-5525-4110-A5C0-9A1C44031F4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB04348B-422B-4F75-8204-E6752041619F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5223,7 +5244,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5333,7 +5354,7 @@
         <v>48</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>38</v>
@@ -5348,7 +5369,7 @@
         <v>48</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>98</v>
+        <v>251</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>38</v>
@@ -5363,7 +5384,7 @@
         <v>48</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>38</v>
@@ -5387,7 +5408,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5402,7 +5423,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5417,7 +5438,7 @@
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,7 +5459,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5453,7 +5474,7 @@
         <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5468,7 +5489,7 @@
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,7 +5560,7 @@
         <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>38</v>
@@ -5554,7 +5575,7 @@
         <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>38</v>
@@ -5569,7 +5590,7 @@
         <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>38</v>
@@ -5593,7 +5614,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5608,7 +5629,7 @@
         <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5623,7 +5644,7 @@
         <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,7 +5665,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5659,7 +5680,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5674,7 +5695,7 @@
         <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,7 +5766,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>256</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>38</v>
@@ -5760,7 +5781,7 @@
         <v>48</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>98</v>
+        <v>251</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>38</v>
@@ -5775,7 +5796,7 @@
         <v>48</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>38</v>
@@ -5799,7 +5820,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5814,7 +5835,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5829,7 +5850,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,7 +5871,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5865,7 +5886,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5880,7 +5901,7 @@
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,7 +5972,7 @@
         <v>48</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>250</v>
+        <v>91</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>38</v>
@@ -5966,7 +5987,7 @@
         <v>48</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>38</v>
@@ -5981,7 +6002,7 @@
         <v>48</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>38</v>
@@ -6005,7 +6026,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>251</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6020,7 +6041,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6035,7 +6056,7 @@
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,7 +6077,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>251</v>
+        <v>82</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6071,7 +6092,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6086,7 +6107,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,7 +6163,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6157,7 +6178,7 @@
         <v>48</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>38</v>
@@ -6172,7 +6193,7 @@
         <v>48</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>38</v>
@@ -6187,7 +6208,7 @@
         <v>48</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>38</v>
@@ -6211,7 +6232,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6226,7 +6247,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>95</v>
+        <v>261</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6241,7 +6262,7 @@
         <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,7 +6283,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6277,7 +6298,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>95</v>
+        <v>261</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6292,7 +6313,7 @@
         <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6348,7 +6369,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6363,7 +6384,7 @@
         <v>48</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>241</v>
+        <v>73</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>38</v>
@@ -6378,7 +6399,7 @@
         <v>48</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>253</v>
+        <v>120</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>38</v>
@@ -6393,7 +6414,7 @@
         <v>48</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>38</v>
@@ -6417,7 +6438,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>237</v>
+        <v>64</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6432,7 +6453,7 @@
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>254</v>
+        <v>114</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6447,7 +6468,7 @@
         <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,7 +6489,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>237</v>
+        <v>64</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6483,7 +6504,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>254</v>
+        <v>114</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6498,7 +6519,7 @@
         <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,7 +6575,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6569,7 +6590,7 @@
         <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>38</v>
@@ -6584,7 +6605,7 @@
         <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>38</v>
@@ -6599,7 +6620,7 @@
         <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>38</v>
@@ -6623,7 +6644,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6653,7 +6674,7 @@
         <v>16</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6674,7 +6695,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6704,7 +6725,7 @@
         <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,7 +6781,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6775,7 +6796,7 @@
         <v>48</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>38</v>
@@ -6790,7 +6811,7 @@
         <v>48</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>38</v>
@@ -6805,7 +6826,7 @@
         <v>48</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>38</v>
@@ -6829,7 +6850,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6844,7 +6865,7 @@
         <v>16</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6859,7 +6880,7 @@
         <v>16</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,7 +6901,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6895,7 +6916,7 @@
         <v>16</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6910,7 +6931,7 @@
         <v>16</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6981,7 +7002,7 @@
         <v>48</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>38</v>
@@ -6996,7 +7017,7 @@
         <v>48</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>38</v>
@@ -7011,7 +7032,7 @@
         <v>48</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>38</v>
@@ -7035,7 +7056,7 @@
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -7050,7 +7071,7 @@
         <v>16</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -7065,7 +7086,7 @@
         <v>16</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,7 +7107,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7101,7 +7122,7 @@
         <v>16</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -7116,7 +7137,7 @@
         <v>16</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7172,7 +7193,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1406-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1406-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B366961D-FF6B-49D3-8C7A-323A5437B913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2A95E91-B948-48ED-AC68-6D46DC6B8A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ABF75996-D565-451A-80A5-86179940B7D4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E5A3A93A-8AE7-45CA-AF33-716A73A61180}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="247">
   <si>
     <t>Población con diagnóstico de úlcera de estómago en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -72,12 +72,66 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -135,15 +189,9 @@
     <t>98,82%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -168,9 +216,6 @@
     <t>1,32%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>99,4%</t>
   </si>
   <si>
@@ -195,517 +240,505 @@
     <t>Granada</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de úlcera de estómago en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
   <si>
     <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de úlcera de estómago en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
   </si>
   <si>
     <t>99,42%</t>
@@ -1156,7 +1189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B667842-4856-45E9-A91C-8F7DC92B3CCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFD48A5-F574-40C0-ABCC-B07C6AF52738}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1274,88 +1307,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>986</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6169</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="N4" s="7">
+        <v>7155</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>281</v>
+      </c>
+      <c r="D5" s="7">
+        <v>293752</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>251</v>
+      </c>
+      <c r="I5" s="7">
+        <v>281076</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>532</v>
+      </c>
+      <c r="N5" s="7">
+        <v>574828</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1364,48 +1409,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1417,13 +1468,13 @@
         <v>11323</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -1432,13 +1483,13 @@
         <v>8298</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -1447,19 +1498,19 @@
         <v>19621</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>461</v>
@@ -1468,13 +1519,13 @@
         <v>494204</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>473</v>
@@ -1483,13 +1534,13 @@
         <v>515467</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>934</v>
@@ -1498,13 +1549,13 @@
         <v>1009671</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1519,13 +1570,13 @@
         <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>480</v>
@@ -1534,13 +1585,13 @@
         <v>523765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>952</v>
@@ -1549,18 +1600,18 @@
         <v>1029292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1572,13 +1623,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1587,13 +1638,13 @@
         <v>3156</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1602,19 +1653,19 @@
         <v>3156</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>319</v>
@@ -1623,13 +1674,13 @@
         <v>324046</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7">
         <v>314</v>
@@ -1638,13 +1689,13 @@
         <v>337864</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>633</v>
@@ -1653,13 +1704,13 @@
         <v>661910</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,13 +1725,13 @@
         <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -1689,13 +1740,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>636</v>
@@ -1704,117 +1755,117 @@
         <v>665066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1909</v>
+        <v>924</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>11357</v>
+        <v>5188</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="7">
+        <v>6</v>
+      </c>
+      <c r="N13" s="7">
+        <v>6112</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="7">
-        <v>12</v>
-      </c>
-      <c r="N13" s="7">
-        <v>13267</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>624</v>
+        <v>343</v>
       </c>
       <c r="D14" s="7">
-        <v>666811</v>
+        <v>373058</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>617</v>
+        <v>366</v>
       </c>
       <c r="I14" s="7">
-        <v>664839</v>
+        <v>383763</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="7">
+        <v>709</v>
+      </c>
+      <c r="N14" s="7">
+        <v>756821</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1241</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1331649</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,54 +1874,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1882,13 +1933,13 @@
         <v>5383</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1897,13 +1948,13 @@
         <v>1054</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -1912,19 +1963,19 @@
         <v>6437</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>191</v>
@@ -1933,13 +1984,13 @@
         <v>207235</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>211</v>
@@ -1948,13 +1999,13 @@
         <v>218537</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M17" s="7">
         <v>402</v>
@@ -1963,13 +2014,13 @@
         <v>425772</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1984,13 +2035,13 @@
         <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -1999,13 +2050,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -2014,18 +2065,18 @@
         <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2037,13 +2088,13 @@
         <v>3920</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2052,13 +2103,13 @@
         <v>2066</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -2067,19 +2118,19 @@
         <v>5985</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>257</v>
@@ -2088,13 +2139,13 @@
         <v>270061</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>266</v>
@@ -2103,13 +2154,13 @@
         <v>276030</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M20" s="7">
         <v>523</v>
@@ -2118,13 +2169,13 @@
         <v>546092</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,13 +2190,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -2154,13 +2205,13 @@
         <v>278096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -2169,18 +2220,18 @@
         <v>552077</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2192,13 +2243,13 @@
         <v>5954</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -2207,13 +2258,13 @@
         <v>6262</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -2222,19 +2273,19 @@
         <v>12215</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>612</v>
@@ -2243,13 +2294,13 @@
         <v>656834</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="H23" s="7">
         <v>630</v>
@@ -2258,13 +2309,13 @@
         <v>687591</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
         <v>1242</v>
@@ -2273,13 +2324,13 @@
         <v>1344426</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,13 +2345,13 @@
         <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>636</v>
@@ -2309,13 +2360,13 @@
         <v>693853</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1254</v>
@@ -2324,18 +2375,18 @@
         <v>1356641</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2347,13 +2398,13 @@
         <v>12083</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -2362,13 +2413,13 @@
         <v>10926</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -2377,19 +2428,19 @@
         <v>23009</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>707</v>
@@ -2398,13 +2449,13 @@
         <v>767015</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>745</v>
@@ -2413,13 +2464,13 @@
         <v>810469</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>1452</v>
@@ -2428,13 +2479,13 @@
         <v>1577484</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2500,13 @@
         <v>779098</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -2464,13 +2515,13 @@
         <v>821395</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1472</v>
@@ -2479,13 +2530,13 @@
         <v>1600493</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2553,13 @@
         <v>40572</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="H28" s="7">
         <v>39</v>
@@ -2517,13 +2568,13 @@
         <v>43119</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M28" s="7">
         <v>77</v>
@@ -2532,19 +2583,19 @@
         <v>83691</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3171</v>
@@ -2553,13 +2604,13 @@
         <v>3386207</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="H29" s="7">
         <v>3256</v>
@@ -2568,13 +2619,13 @@
         <v>3510797</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="M29" s="7">
         <v>6427</v>
@@ -2583,13 +2634,13 @@
         <v>6897003</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,13 +2655,13 @@
         <v>3426779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3295</v>
@@ -2619,13 +2670,13 @@
         <v>3553916</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6504</v>
@@ -2634,18 +2685,18 @@
         <v>6980694</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2669,7 +2720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9376267-8889-4F75-B356-629EADB1A1E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9535C0AA-364E-49DC-83FF-920B7CBB6A3C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2686,7 +2737,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2793,13 +2844,13 @@
         <v>930</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2808,13 +2859,13 @@
         <v>2213</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2823,19 +2874,19 @@
         <v>3143</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>265</v>
@@ -2844,13 +2895,13 @@
         <v>292831</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>275</v>
@@ -2859,13 +2910,13 @@
         <v>286490</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>540</v>
@@ -2874,13 +2925,13 @@
         <v>579321</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2946,13 @@
         <v>293761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -2910,13 +2961,13 @@
         <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>543</v>
@@ -2925,18 +2976,18 @@
         <v>582464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2948,13 +2999,13 @@
         <v>5423</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -2963,13 +3014,13 @@
         <v>5148</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -2978,19 +3029,19 @@
         <v>10572</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>470</v>
@@ -2999,13 +3050,13 @@
         <v>497152</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>479</v>
@@ -3014,13 +3065,13 @@
         <v>517936</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>949</v>
@@ -3029,13 +3080,13 @@
         <v>1015087</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3101,13 @@
         <v>502575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>484</v>
@@ -3065,13 +3116,13 @@
         <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>959</v>
@@ -3080,18 +3131,18 @@
         <v>1025659</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3103,13 +3154,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3118,13 +3169,13 @@
         <v>1932</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3133,19 +3184,19 @@
         <v>1932</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>335</v>
@@ -3154,13 +3205,13 @@
         <v>318565</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7">
         <v>330</v>
@@ -3169,13 +3220,13 @@
         <v>334377</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
         <v>665</v>
@@ -3184,13 +3235,13 @@
         <v>652942</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3256,13 @@
         <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
@@ -3220,13 +3271,13 @@
         <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>667</v>
@@ -3235,18 +3286,18 @@
         <v>654874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3258,13 +3309,13 @@
         <v>1764</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3273,13 +3324,13 @@
         <v>3024</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3288,19 +3339,19 @@
         <v>4788</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>353</v>
@@ -3309,13 +3360,13 @@
         <v>368200</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
         <v>355</v>
@@ -3324,13 +3375,13 @@
         <v>384259</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>708</v>
@@ -3339,13 +3390,13 @@
         <v>752459</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,13 +3411,13 @@
         <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>358</v>
@@ -3375,13 +3426,13 @@
         <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>712</v>
@@ -3390,18 +3441,18 @@
         <v>757247</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3413,13 +3464,13 @@
         <v>1066</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3428,13 +3479,13 @@
         <v>1962</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3443,19 +3494,19 @@
         <v>3028</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>211</v>
@@ -3464,13 +3515,13 @@
         <v>210155</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H17" s="7">
         <v>221</v>
@@ -3479,13 +3530,13 @@
         <v>216625</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M17" s="7">
         <v>432</v>
@@ -3494,13 +3545,13 @@
         <v>426780</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,13 +3566,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -3530,13 +3581,13 @@
         <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -3545,18 +3596,18 @@
         <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3568,13 +3619,13 @@
         <v>807</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -3583,13 +3634,13 @@
         <v>4385</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -3598,19 +3649,19 @@
         <v>5192</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>258</v>
@@ -3619,13 +3670,13 @@
         <v>262316</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H20" s="7">
         <v>259</v>
@@ -3634,13 +3685,13 @@
         <v>268730</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="M20" s="7">
         <v>517</v>
@@ -3649,13 +3700,13 @@
         <v>531046</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,13 +3721,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -3685,13 +3736,13 @@
         <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>522</v>
@@ -3700,18 +3751,18 @@
         <v>536238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3723,13 +3774,13 @@
         <v>4125</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -3738,13 +3789,13 @@
         <v>7386</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -3753,19 +3804,19 @@
         <v>11510</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>576</v>
@@ -3774,13 +3825,13 @@
         <v>652433</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="H23" s="7">
         <v>640</v>
@@ -3789,13 +3840,13 @@
         <v>683908</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="M23" s="7">
         <v>1216</v>
@@ -3804,13 +3855,13 @@
         <v>1336342</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3876,13 @@
         <v>656558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>646</v>
@@ -3840,13 +3891,13 @@
         <v>691294</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1226</v>
@@ -3855,18 +3906,18 @@
         <v>1347852</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3878,13 +3929,13 @@
         <v>1135</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -3893,13 +3944,13 @@
         <v>8217</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -3908,19 +3959,19 @@
         <v>9351</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>749</v>
@@ -3929,13 +3980,13 @@
         <v>777448</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H26" s="7">
         <v>748</v>
@@ -3944,13 +3995,13 @@
         <v>817950</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>63</v>
+        <v>233</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="M26" s="7">
         <v>1497</v>
@@ -3959,13 +4010,13 @@
         <v>1595399</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +4031,13 @@
         <v>778583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -3995,13 +4046,13 @@
         <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1505</v>
@@ -4010,13 +4061,13 @@
         <v>1604750</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4084,13 @@
         <v>15249</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="H28" s="7">
         <v>31</v>
@@ -4048,13 +4099,13 @@
         <v>34266</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="M28" s="7">
         <v>45</v>
@@ -4063,19 +4114,19 @@
         <v>49515</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3217</v>
@@ -4084,13 +4135,13 @@
         <v>3379101</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="H29" s="7">
         <v>3307</v>
@@ -4099,13 +4150,13 @@
         <v>3510276</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="M29" s="7">
         <v>6524</v>
@@ -4114,13 +4165,13 @@
         <v>6889377</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4186,13 @@
         <v>3394350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3338</v>
@@ -4150,13 +4201,13 @@
         <v>3544542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6569</v>
@@ -4165,18 +4216,18 @@
         <v>6938892</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
